--- a/src/main/webapp/manuales/Documento_Version_Yemsys.xlsx
+++ b/src/main/webapp/manuales/Documento_Version_Yemsys.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hvelazquez\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hvelazquez\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DE1B9C-9250-4390-8514-E5E6F42F6949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2ACC39AD-A6FE-4ABF-99FC-59B286C05857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3840" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version Yemsys" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="283">
   <si>
     <t>Seq</t>
   </si>
@@ -873,6 +873,21 @@
   </si>
   <si>
     <t>BLOQUEO POR MATERIA PRIMA</t>
+  </si>
+  <si>
+    <t>Modulo Vimar</t>
+  </si>
+  <si>
+    <t>Recuento Inventario</t>
+  </si>
+  <si>
+    <t>0112-PAN-26012024-A</t>
+  </si>
+  <si>
+    <t>0113-PAN-26012024-A</t>
+  </si>
+  <si>
+    <t>Informe Recuento Inventario</t>
   </si>
 </sst>
 </file>
@@ -1271,9 +1286,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1311,7 +1326,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1417,7 +1432,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1559,7 +1574,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1569,8 +1584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H112" sqref="H112"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H114" sqref="H114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4120,97 +4135,128 @@
       </c>
       <c r="H112" s="11"/>
     </row>
-    <row r="113" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="47" t="s">
+        <v>280</v>
+      </c>
+      <c r="C113" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="D113" t="s">
+        <v>279</v>
+      </c>
+      <c r="F113" s="45">
+        <v>45317</v>
+      </c>
+      <c r="G113" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="47" t="s">
+        <v>281</v>
+      </c>
+      <c r="C114" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="D114" t="s">
+        <v>282</v>
+      </c>
+      <c r="F114" s="45">
+        <v>45317</v>
+      </c>
+      <c r="G114" s="46">
+        <v>0</v>
+      </c>
+      <c r="H114" s="11"/>
+    </row>
+    <row r="115" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122">
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128">
         <f t="shared" si="1"/>
         <v>127</v>
